--- a/WebContent/WEB-INF/teacher/examDemo.xlsx
+++ b/WebContent/WEB-INF/teacher/examDemo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="mjMQOkDG7TStKYIGYTJIOMdB24VAP+7vxboCni9JwoqHCdpoGiUMspuhhzwLmIxkYzxOPGT0r0NVRizQYhpdgA==" workbookSaltValue="LzLbeZJs5Zed1ucIX6m/Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单选" sheetId="1" r:id="rId1"/>
@@ -153,14 +154,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -169,11 +162,20 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,56 +517,62 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="16.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tsFke7S1YfHjTDtgyIFenk5gw/rVMY2jttj/3A7m+akO0XP+aStlgvisqparjKTpNXnuI4agg+U9O/FdeQ3X5Q==" saltValue="MdkWmGkCUxRhhBUyQ06deA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xA3t3yHJcS2qzxcgTKHybSecGAncy4hRxOWgpLrMT5ZBWd+zyCt25CCm0XtRR3/zSkeo46l1uJPH9YQ44WTSkA==" saltValue="O8/IBNEH4/yNME5qdBfBPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations xWindow="137" yWindow="293" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="此处仅允许填写大写的A B C D英文字母" sqref="F3">
+      <formula1>$B$2:$E$2</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="请在此处填写单选题的题干信息" sqref="A3:A1048576"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -574,56 +582,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="22.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="22.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vOF8Rd3fLK2SMcdoEN2E/chjr61QBUejK8d+Ad/WBEtWLVAyDrOVgbfrmTbqOeWsUzk6104ELugoKiF8gEaTNg==" saltValue="5juvwJ2X5uCCtUMGBxF1KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rGYUjTHjNuHopAcPXV+uZCiuUTcYCldUf5gDvZwJBvnWXxpG+XcvNXZd/V7GzOvZL+64iIRCfO1Vn3A7peuHTg==" saltValue="hWdG68ieBwa6BKuYzX/+1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="请在此处写出答案，比如 AB AC AD ABC 即可" sqref="F3:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="请在此填写多选题题干" sqref="A3:A1048576"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -631,37 +643,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="32.375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="32.375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="6"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Myzaw8vri3ydeSu/OS5+BWnRTzuIOtR8OMd6fhI71lGrFCQspUEsjuXHOq8aDS2GaazdJnD0SJ5fsOdtekeX4w==" saltValue="v2GR73ZjlAa1f0ZU2qC8oQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="83vLTv7rHeqmSif3Z4OMoQHSvHbZ6gMgAfKQOAxHdLmiWmrSVAv3Q8HiSgDCgl9m9446hoYFfPiLukYwmXcSBg==" saltValue="CwjNxquA0Cxgn5t3Uq0Iow==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="此处仅允许填写 对 或 错" sqref="B3:B1048576">
+      <formula1>"错,对"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="请在此处填写判断题的题干信息" sqref="A3:A1048576"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -669,6 +691,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -681,27 +706,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
